--- a/자바관련문서/Transaction Exception.xlsx
+++ b/자바관련문서/Transaction Exception.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="6"/>
+    <workbookView xWindow="109" yWindow="68" windowWidth="25961" windowHeight="11058" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="트랜잭션" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="전파예제 2" sheetId="5" r:id="rId5"/>
     <sheet name="트랜잭션 격리" sheetId="6" r:id="rId6"/>
     <sheet name="noRollbackFor" sheetId="7" r:id="rId7"/>
+    <sheet name="전역Exception처리" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -3889,6 +3890,247 @@
         <a:xfrm>
           <a:off x="1716657" y="6564702"/>
           <a:ext cx="7013660" cy="4089145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172528</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1147313" y="491707"/>
+          <a:ext cx="7996687" cy="1095554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1. https://www.youtube.com/watch?v=nyN4o9eXqm0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. https://www.youtube.com/watch?v=5XHhAhN-9po    --</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>커스텀 익셉션</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207034</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>362810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9178506" y="0"/>
+          <a:ext cx="9127247" cy="5115744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17610</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>155429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1078301" y="1708030"/>
+          <a:ext cx="6530554" cy="2812365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293298</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>121176</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>164124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9264770" y="5236234"/>
+          <a:ext cx="7419123" cy="4054637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181155</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311011</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="871268" y="4710022"/>
+          <a:ext cx="8411215" cy="2519051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,7 +4529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4297,4 +4539,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>